--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>大項目</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>メールチェック</t>
+  </si>
+  <si>
+    <t>会議室の設備の変更を成功</t>
+  </si>
+  <si>
+    <t>会議室の設備の変更を失敗</t>
   </si>
 </sst>
 </file>
@@ -853,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1603,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1630,6 +1636,20 @@
     <row r="2" spans="1:3">
       <c r="A2">
         <v>23</v>
+      </c>
+      <c r="B2">
+        <v>23.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3">
+        <v>23.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
     <sheet name="メッセージ" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>大項目</t>
   </si>
@@ -84,132 +84,137 @@
     <t>詳細表示</t>
   </si>
   <si>
+    <t>会議室管理</t>
+  </si>
+  <si>
+    <t>全部表示</t>
+  </si>
+  <si>
+    <t>予約する</t>
+  </si>
+  <si>
+    <t>画面</t>
+  </si>
+  <si>
+    <t>全部の予約の情報を表す</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>輸出</t>
+  </si>
+  <si>
+    <t>予約</t>
+  </si>
+  <si>
+    <t>CSV、excel を輸出する</t>
+  </si>
+  <si>
+    <t>テナントさんとか会議室とかステータスとか時間とかから検索する</t>
+  </si>
+  <si>
+    <t>一度とか毎週とか毎月とかチェック</t>
+  </si>
+  <si>
+    <t>入力チェック(フォーム)</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>時間をチェック</t>
+  </si>
+  <si>
+    <t>予約のステータスと会議室のステータスを変更する</t>
+  </si>
+  <si>
+    <t>金額を計算</t>
+  </si>
+  <si>
+    <t>VietToan</t>
+  </si>
+  <si>
+    <t>TuanAnh</t>
+  </si>
+  <si>
+    <t>データの並び替え</t>
+  </si>
+  <si>
+    <t>テナントさんの名前とか電話番号とかから検索する</t>
+  </si>
+  <si>
+    <t>テナントさんの全部の情報を表す</t>
+  </si>
+  <si>
+    <t>ユーザーの機能のログインが禁止します。</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>全部会議室の状態を表す</t>
+  </si>
+  <si>
+    <t>会議室がいつからいつまで予約されたか、予約されなかったかを表す。各会議室の設備を表す。</t>
+  </si>
+  <si>
+    <t>会議室の設備を変更することを表す</t>
+  </si>
+  <si>
+    <t>処理ID</t>
+  </si>
+  <si>
+    <t>メッセージID</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>登録画面</t>
+  </si>
+  <si>
+    <t>テナントさんが本当かチェック</t>
+  </si>
+  <si>
+    <t>重複チェック</t>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+  </si>
+  <si>
+    <t>ユーザーとパスワードが正しいかチェック</t>
+  </si>
+  <si>
+    <t>メールチェック</t>
+  </si>
+  <si>
+    <t>会議室の設備の変更を成功</t>
+  </si>
+  <si>
+    <t>会議室の設備の変更を失敗</t>
+  </si>
+  <si>
+    <t>テナントさんの一覧を表す</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>削除</t>
-  </si>
-  <si>
-    <t>会議室管理</t>
-  </si>
-  <si>
-    <t>全部表示</t>
-  </si>
-  <si>
-    <t>予約する</t>
-  </si>
-  <si>
-    <t>画面</t>
-  </si>
-  <si>
-    <t>全部の予約の情報を表す</t>
-  </si>
-  <si>
-    <t>検索</t>
-  </si>
-  <si>
-    <t>輸出</t>
-  </si>
-  <si>
-    <t>予約</t>
-  </si>
-  <si>
-    <t>CSV、excel を輸出する</t>
-  </si>
-  <si>
-    <t>テナントさんとか会議室とかステータスとか時間とかから検索する</t>
-  </si>
-  <si>
-    <t>一度とか毎週とか毎月とかチェック</t>
-  </si>
-  <si>
-    <t>入力チェック(フォーム)</t>
-  </si>
-  <si>
-    <t>キャンセル</t>
-  </si>
-  <si>
-    <t>時間をチェック</t>
-  </si>
-  <si>
-    <t>予約のステータスと会議室のステータスを変更する</t>
-  </si>
-  <si>
-    <t>金額を計算</t>
-  </si>
-  <si>
-    <t>VietToan</t>
-  </si>
-  <si>
-    <t>TuanAnh</t>
-  </si>
-  <si>
-    <t>データの並び替え</t>
-  </si>
-  <si>
-    <t>テナントさんの名前とか電話番号とかから検索する</t>
-  </si>
-  <si>
-    <t>テナントさんの全部の情報を表す</t>
-  </si>
-  <si>
-    <t>テナントさんの順番を表す</t>
-  </si>
-  <si>
-    <t>ユーザーの機能のログインが禁止します。</t>
-  </si>
-  <si>
-    <t>Lam</t>
-  </si>
-  <si>
-    <t>全部会議室の状態を表す</t>
-  </si>
-  <si>
-    <t>会議室がいつからいつまで予約されたか、予約されなかったかを表す。各会議室の設備を表す。</t>
-  </si>
-  <si>
-    <t>会議室の設備を変更することを表す</t>
-  </si>
-  <si>
-    <t>処理ID</t>
-  </si>
-  <si>
-    <t>メッセージID</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>登録画面</t>
-  </si>
-  <si>
-    <t>テナントさんが本当かチェック</t>
-  </si>
-  <si>
-    <t>重複チェック</t>
-  </si>
-  <si>
-    <t>ログイン画面</t>
-  </si>
-  <si>
-    <t>ユーザーとパスワードが正しいかチェック</t>
-  </si>
-  <si>
-    <t>メールチェック</t>
-  </si>
-  <si>
-    <t>会議室の設備の変更を成功</t>
-  </si>
-  <si>
-    <t>会議室の設備の変更を失敗</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +222,7 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,8 +230,15 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -857,31 +869,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="7" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="8"/>
-    <col min="15" max="16384" width="9.140625" style="11"/>
+    <col min="9" max="9" width="7.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="11" customWidth="1"/>
+    <col min="13" max="14" width="9.125" style="8"/>
+    <col min="15" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:36" s="6" customFormat="1" ht="17.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -929,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>10</v>
@@ -973,7 +985,7 @@
       <c r="A3" s="26"/>
       <c r="B3" s="18"/>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>10</v>
@@ -1015,7 +1027,7 @@
       <c r="A4" s="26"/>
       <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>10</v>
@@ -1035,7 +1047,7 @@
       <c r="A5" s="26"/>
       <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -1057,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>10</v>
@@ -1091,7 +1103,7 @@
       <c r="A7" s="26"/>
       <c r="B7" s="18"/>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>10</v>
@@ -1121,11 +1133,11 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:36" ht="30">
+    <row r="8" spans="1:36">
       <c r="A8" s="26"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>10</v>
@@ -1159,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>10</v>
@@ -1193,7 +1205,7 @@
       <c r="A10" s="26"/>
       <c r="B10" s="40"/>
       <c r="C10" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>10</v>
@@ -1227,7 +1239,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>10</v>
@@ -1259,7 +1271,7 @@
       <c r="A12" s="28"/>
       <c r="B12" s="44"/>
       <c r="C12" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>10</v>
@@ -1295,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1315,10 +1327,10 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1338,10 +1350,10 @@
     </row>
     <row r="15" spans="1:36">
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1359,9 +1371,9 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:36" ht="30">
+    <row r="16" spans="1:36" ht="27">
       <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1384,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1404,7 +1416,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1427,7 +1439,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1445,111 +1457,114 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="21" spans="1:26">
-      <c r="B21" s="4" t="s">
+    <row r="20" spans="1:26">
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" s="43" customFormat="1">
+      <c r="A21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="30">
+      <c r="B21" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="43" customFormat="1">
-      <c r="A23" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="12" t="s">
-        <v>40</v>
-      </c>
+    <row r="23" spans="1:26">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="40.5">
       <c r="C24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:26">
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" s="43" customFormat="1">
+      <c r="A27" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="45">
-      <c r="C26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="B27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="30">
-      <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" s="43" customFormat="1">
-      <c r="A29" s="45" t="s">
+    <row r="29" spans="1:26">
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="B31" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="C31" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="49" t="s">
+    </row>
+    <row r="32" spans="1:26" ht="27">
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="30">
-      <c r="C34" s="2" t="s">
-        <v>32</v>
+      <c r="C35" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -1557,51 +1572,44 @@
         <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="2" t="s">
+      <c r="C39" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="49" t="s">
+      <c r="C41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="2" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="43" spans="2:3" ht="27">
       <c r="C43" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="C44" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="30">
-      <c r="C45" s="2" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" s="49" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1611,26 +1619,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1641,7 +1649,7 @@
         <v>23.1</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1649,10 +1657,11 @@
         <v>23.2</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1663,8 +1672,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
     <sheet name="メッセージ" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -214,7 +214,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,7 +222,7 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -230,13 +230,13 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -871,29 +871,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="7" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="11" customWidth="1"/>
-    <col min="13" max="14" width="9.125" style="8"/>
-    <col min="15" max="16384" width="9.125" style="11"/>
+    <col min="9" max="9" width="7.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="11" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="8"/>
+    <col min="15" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" ht="17.25">
+    <row r="1" spans="1:36" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" ht="30">
       <c r="A8" s="26"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
@@ -1371,7 +1371,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:36" ht="27">
+    <row r="16" spans="1:36" ht="30">
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1457,7 +1457,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="30">
       <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="40.5">
+    <row r="24" spans="1:26" ht="45">
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="30">
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="27">
+    <row r="32" spans="1:26" ht="30">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="27">
+    <row r="43" spans="2:3" ht="30">
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
@@ -1617,17 +1617,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="78.75" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1641,22 +1641,22 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="50" spans="1:3">
+      <c r="A50">
         <v>23</v>
       </c>
-      <c r="B2">
+      <c r="B50">
         <v>23.1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="B3">
+    <row r="51" spans="1:3">
+      <c r="B51">
         <v>23.2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C51" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
     <sheet name="メッセージ" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="フローチャット" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>大項目</t>
   </si>
@@ -132,24 +132,12 @@
     <t>金額を計算</t>
   </si>
   <si>
-    <t>VietToan</t>
-  </si>
-  <si>
     <t>TuanAnh</t>
   </si>
   <si>
     <t>データの並び替え</t>
   </si>
   <si>
-    <t>テナントさんの名前とか電話番号とかから検索する</t>
-  </si>
-  <si>
-    <t>テナントさんの全部の情報を表す</t>
-  </si>
-  <si>
-    <t>ユーザーの機能のログインが禁止します。</t>
-  </si>
-  <si>
     <t>Lam</t>
   </si>
   <si>
@@ -187,12 +175,6 @@
   </si>
   <si>
     <t>メールチェック</t>
-  </si>
-  <si>
-    <t>会議室の設備の変更を成功</t>
-  </si>
-  <si>
-    <t>会議室の設備の変更を失敗</t>
   </si>
   <si>
     <t>テナントさんの一覧を表す</t>
@@ -205,16 +187,80 @@
     <t>削除</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>会議室の設備の変更が成功しました。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会議室の設備の変更が失敗しました。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正しい</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>正しくない</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Thuyet</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テナントさんの全部の情報を表す</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テナントさんの情報を使って検索する</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーの機能のログインを許さないように。</t>
+    <rPh sb="13" eb="14">
+      <t>ユル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,7 +268,7 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -230,13 +276,21 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -421,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -569,6 +623,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,6 +639,1083 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="923925"/>
+          <a:ext cx="1047750" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データを入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>465932</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>115093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2366963" y="1500187"/>
+          <a:ext cx="314325" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Diamond 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="1657350"/>
+          <a:ext cx="1257300" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力チェック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1447800" y="2152649"/>
+          <a:ext cx="438150" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="1952625"/>
+          <a:ext cx="1047750" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>237331</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238919</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67469</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="542925" y="1571625"/>
+          <a:ext cx="762000" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="1190625"/>
+          <a:ext cx="1038225" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>96838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="2152650"/>
+          <a:ext cx="409575" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>124620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76992</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3244055" y="2443957"/>
+          <a:ext cx="637385" cy="18255"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Diamond 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="2733674"/>
+          <a:ext cx="1409700" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザとパスワードチェック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114303</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4210049" y="2857502"/>
+          <a:ext cx="1000127" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>106363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="3362325"/>
+          <a:ext cx="409575" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="1952625"/>
+          <a:ext cx="1047750" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609603</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58738</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4361658" y="1553370"/>
+          <a:ext cx="754063" cy="28573"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3076576" y="1171576"/>
+          <a:ext cx="1704975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>153195</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3272630" y="4320382"/>
+          <a:ext cx="637385" cy="18255"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="4657725"/>
+          <a:ext cx="1047750" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>86517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200821</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3415507" y="5272086"/>
+          <a:ext cx="427833" cy="795"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504031</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>65884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2390773" y="742157"/>
+          <a:ext cx="351635" cy="10320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Flowchart: Connector 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2524125" y="409575"/>
+          <a:ext cx="142875" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Flowchart: Connector 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="5486400"/>
+          <a:ext cx="142875" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,29 +2005,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
     <col min="8" max="8" width="7" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="8"/>
-    <col min="15" max="16384" width="9.140625" style="11"/>
+    <col min="9" max="9" width="7.125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="6.625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="11" customWidth="1"/>
+    <col min="13" max="14" width="9.125" style="8"/>
+    <col min="15" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" ht="18.75">
+    <row r="1" spans="1:36" s="6" customFormat="1" ht="17.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -941,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>10</v>
@@ -1027,7 +2161,7 @@
       <c r="A4" s="26"/>
       <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>10</v>
@@ -1047,7 +2181,7 @@
       <c r="A5" s="26"/>
       <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>10</v>
@@ -1069,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>10</v>
@@ -1133,11 +2267,11 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:36" ht="30">
+    <row r="8" spans="1:36">
       <c r="A8" s="26"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>10</v>
@@ -1271,7 +2405,7 @@
       <c r="A12" s="28"/>
       <c r="B12" s="44"/>
       <c r="C12" s="29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>10</v>
@@ -1327,10 +2461,10 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -1371,9 +2505,9 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:36" ht="30">
+    <row r="16" spans="1:36">
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1416,7 +2550,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1457,12 +2591,12 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26" ht="30">
+    <row r="20" spans="1:26">
       <c r="B20" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:26" s="43" customFormat="1">
@@ -1484,10 +2618,10 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -1498,9 +2632,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="45">
+    <row r="24" spans="1:26" ht="40.5">
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -1511,9 +2645,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="30">
+    <row r="26" spans="1:26">
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:26" s="43" customFormat="1">
@@ -1535,7 +2669,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="12" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -1543,7 +2677,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -1554,7 +2688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="30">
+    <row r="32" spans="1:26" ht="27">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +2732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="30">
+    <row r="43" spans="2:3" ht="27">
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
@@ -1619,45 +2753,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>23.1</v>
+        <v>21.1</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51">
-        <v>23.2</v>
+        <v>21.2</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1668,13 +2802,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +268,7 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -276,13 +276,13 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -290,7 +290,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -645,8 +645,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2382</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -663,8 +663,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="923925"/>
-          <a:ext cx="1047750" cy="419100"/>
+          <a:off x="1824038" y="1019175"/>
+          <a:ext cx="928687" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2005,29 +2005,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="11" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="7" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.25" style="11" customWidth="1"/>
-    <col min="13" max="14" width="9.125" style="8"/>
-    <col min="15" max="16384" width="9.125" style="11"/>
+    <col min="9" max="9" width="7.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="6.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="11" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="8"/>
+    <col min="15" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="6" customFormat="1" ht="17.25">
+    <row r="1" spans="1:36" s="6" customFormat="1" ht="18.75">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +2267,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" ht="30">
       <c r="A8" s="26"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41" t="s">
@@ -2505,7 +2505,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" ht="30">
       <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
@@ -2591,7 +2591,7 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="30">
       <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="40.5">
+    <row r="24" spans="1:26" ht="45">
       <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="30">
       <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="27">
+    <row r="32" spans="1:26" ht="30">
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="27">
+    <row r="43" spans="2:3" ht="30">
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
@@ -2757,11 +2757,11 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="78.75" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2804,11 +2804,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:H34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:7">
       <c r="D2" t="s">

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="10455" windowHeight="4785" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="19395" windowHeight="7245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="会議室管理" sheetId="6" r:id="rId6"/>
     <sheet name="予約する" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>大項目</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>会議室がいつからいつまで予約されたか、予約されなかったかを表す。各会議室の設備を表す。</t>
-  </si>
-  <si>
-    <t>会議室の設備を変更することを表す</t>
   </si>
   <si>
     <t>処理ID</t>
@@ -189,14 +186,6 @@
   </si>
   <si>
     <t>削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会議室の設備の変更が成功しました。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>会議室の設備の変更が失敗しました。</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -238,6 +227,39 @@
   </si>
   <si>
     <t>ゆーざ情報変更</t>
+  </si>
+  <si>
+    <t>このユーザ名はすでに入っています。</t>
+  </si>
+  <si>
+    <t>あなたはテナントさんではありません。</t>
+  </si>
+  <si>
+    <t>登録が完成しました。</t>
+  </si>
+  <si>
+    <t>更新が成功しました。</t>
+  </si>
+  <si>
+    <t>メールアドレス形式が正しくないです。</t>
+  </si>
+  <si>
+    <t>このメールが見つかませんでした。</t>
+  </si>
+  <si>
+    <t>あなたのメールに新パスワードをお送りしました。</t>
+  </si>
+  <si>
+    <t>会議室の設備を変更することを提出する</t>
+  </si>
+  <si>
+    <t>会議室の設備の変更が成功しました。</t>
+  </si>
+  <si>
+    <t>会議室の設備の変更が失敗しました。</t>
+  </si>
+  <si>
+    <t>会議室の設備を変更</t>
   </si>
 </sst>
 </file>
@@ -426,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -534,9 +556,6 @@
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,7 +640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -668,7 +687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -699,13 +718,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>11910</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>450060</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -715,7 +734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -723,8 +742,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11910" y="5357813"/>
-          <a:ext cx="3474244" cy="4629150"/>
+          <a:off x="11910" y="5348288"/>
+          <a:ext cx="3486150" cy="4629150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -762,7 +781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -770,8 +789,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3774282" y="5345903"/>
-          <a:ext cx="3283744" cy="4572000"/>
+          <a:off x="3788569" y="5345903"/>
+          <a:ext cx="3295651" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,6 +803,44 @@
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476742</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>134114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Snapshot_2012-02-24_232408.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10477500"/>
+          <a:ext cx="3524742" cy="5468114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1078,8 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1089,13 +1147,13 @@
     <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="9" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="9" customWidth="1"/>
     <col min="13" max="14" width="9.140625" style="6"/>
     <col min="15" max="16384" width="9.140625" style="9"/>
   </cols>
@@ -1104,10 +1162,10 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -1147,8 +1205,8 @@
       <c r="B2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>47</v>
+      <c r="C2" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>10</v>
@@ -1190,8 +1248,8 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="18"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1232,9 +1290,9 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" s="18"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="46" t="s">
-        <v>48</v>
+      <c r="B4" s="40"/>
+      <c r="C4" s="45" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>10</v>
@@ -1252,9 +1310,9 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="18"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="46" t="s">
-        <v>49</v>
+      <c r="B5" s="40"/>
+      <c r="C5" s="45" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>10</v>
@@ -1272,11 +1330,11 @@
     </row>
     <row r="6" spans="1:36" s="8" customFormat="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>50</v>
+      <c r="C6" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>10</v>
@@ -1308,8 +1366,8 @@
     </row>
     <row r="7" spans="1:36" s="7" customFormat="1">
       <c r="A7" s="18"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1342,9 +1400,9 @@
     </row>
     <row r="8" spans="1:36" ht="30">
       <c r="A8" s="18"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="48" t="s">
-        <v>51</v>
+      <c r="B8" s="42"/>
+      <c r="C8" s="47" t="s">
+        <v>50</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>10</v>
@@ -1374,10 +1432,10 @@
     </row>
     <row r="9" spans="1:36" s="7" customFormat="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -1410,17 +1468,16 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="18"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="48" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="26"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1442,9 +1499,9 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="18"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="45" t="s">
-        <v>63</v>
+      <c r="B11" s="40"/>
+      <c r="C11" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>10</v>
@@ -1474,10 +1531,10 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="18"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="31" t="s">
@@ -1509,8 +1566,8 @@
     <row r="13" spans="1:36" s="10" customFormat="1">
       <c r="A13" s="8"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="46" t="s">
-        <v>52</v>
+      <c r="C13" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
@@ -1543,8 +1600,8 @@
     <row r="14" spans="1:36" s="21" customFormat="1">
       <c r="A14" s="20"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="50" t="s">
-        <v>64</v>
+      <c r="C14" s="49" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>10</v>
@@ -1578,10 +1635,10 @@
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="10"/>
@@ -1606,8 +1663,8 @@
         <v>40</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="46" t="s">
-        <v>53</v>
+      <c r="C16" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="D16" s="10"/>
       <c r="J16" s="6"/>
@@ -1627,10 +1684,10 @@
       <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="10"/>
@@ -1652,8 +1709,8 @@
     </row>
     <row r="18" spans="1:26">
       <c r="B18" s="36"/>
-      <c r="C18" s="51" t="s">
-        <v>59</v>
+      <c r="C18" s="50" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="10"/>
       <c r="J18" s="6"/>
@@ -1673,10 +1730,10 @@
       <c r="Z18" s="6"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="10"/>
@@ -1698,8 +1755,8 @@
     </row>
     <row r="20" spans="1:26">
       <c r="B20" s="36"/>
-      <c r="C20" s="46" t="s">
-        <v>58</v>
+      <c r="C20" s="45" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="10"/>
       <c r="J20" s="6"/>
@@ -1719,10 +1776,10 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="10"/>
@@ -1743,11 +1800,11 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" ht="30">
-      <c r="B22" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>60</v>
+      <c r="B22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="10"/>
     </row>
@@ -1755,10 +1812,10 @@
       <c r="A23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="48" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="13"/>
@@ -1773,40 +1830,40 @@
         <v>38</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>41</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:26" ht="45">
       <c r="B26" s="36"/>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>42</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="30">
       <c r="B28" s="36"/>
-      <c r="C28" s="46" t="s">
-        <v>43</v>
+      <c r="C28" s="45" t="s">
+        <v>70</v>
       </c>
       <c r="D28" s="10"/>
     </row>
@@ -1814,10 +1871,10 @@
       <c r="A29" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="13"/>
@@ -1829,137 +1886,137 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" s="36"/>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:26">
       <c r="B31" s="36"/>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="45" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:26">
       <c r="B32" s="36"/>
-      <c r="C32" s="46"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="10"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:4" ht="30">
       <c r="B34" s="36"/>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="10"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="36"/>
-      <c r="C35" s="46"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="36"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="10"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="45" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="36"/>
-      <c r="C38" s="46"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="10"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="36"/>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="10"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="36"/>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="51" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="36"/>
-      <c r="C42" s="46"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>25</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="36"/>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="10"/>
     </row>
     <row r="45" spans="2:4" ht="30">
       <c r="B45" s="36"/>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="36"/>
-      <c r="C46" s="46"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="46"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="36"/>
-      <c r="C48" s="46"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="10"/>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="36"/>
-      <c r="C49" s="46"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="10"/>
     </row>
   </sheetData>
@@ -1971,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1986,13 +2043,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2003,50 +2060,123 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3">
         <v>1.2</v>
       </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>1.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="B5">
+        <v>1.4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>2.1</v>
       </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
-        <v>21</v>
-      </c>
-      <c r="B50">
-        <v>21.1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="B51">
-        <v>21.2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3.1</v>
+      </c>
+      <c r="C10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>3.2</v>
+      </c>
+      <c r="C11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12">
+        <v>3.3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
+        <v>4.2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16">
+        <v>4.3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>11.1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19">
+        <v>11.2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2057,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C20:I54"/>
+  <dimension ref="C20:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2080,10 +2210,20 @@
     </row>
     <row r="54" spans="3:9">
       <c r="C54" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
@@ -2122,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="19395" windowHeight="7245" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="19395" windowHeight="7245" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>大項目</t>
   </si>
@@ -260,6 +260,21 @@
   </si>
   <si>
     <t>会議室の設備を変更</t>
+  </si>
+  <si>
+    <t>入力フォームが正しくないです。</t>
+  </si>
+  <si>
+    <t>予約が成功でした。</t>
+  </si>
+  <si>
+    <t>2時間前以内ですから、カンセルできない。</t>
+  </si>
+  <si>
+    <t>予約がカンセルでした。</t>
+  </si>
+  <si>
+    <t>予約をカンセル</t>
   </si>
 </sst>
 </file>
@@ -807,36 +822,122 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476742</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>134114</xdr:rowOff>
+      <xdr:colOff>505317</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>181739</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Snapshot_2012-02-24_232408.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Snapshot_2012-02-24_232408.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10477500"/>
+          <a:off x="28575" y="47625"/>
           <a:ext cx="3524742" cy="5468114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419583</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="yoyaku.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="3458058" cy="5001323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552881</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="cancel.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="0"/>
+          <a:ext cx="3086531" cy="4324954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,8 +1237,8 @@
   <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D29:D30"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2028,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2179,6 +2280,44 @@
         <v>71</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22">
+        <v>16.2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25">
+        <v>17.2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C20:I85"/>
+  <dimension ref="C20:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2214,16 +2353,6 @@
       </c>
       <c r="I54" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2380,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2262,28 +2391,47 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C24:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="24" spans="3:10">
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="19395" windowHeight="7245" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="会議室管理" sheetId="6" r:id="rId6"/>
     <sheet name="予約する" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
   <si>
     <t>大項目</t>
   </si>
@@ -58,12 +58,6 @@
     <t>2月10</t>
   </si>
   <si>
-    <t>2月11</t>
-  </si>
-  <si>
-    <t>2月12</t>
-  </si>
-  <si>
     <t>2月13</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
   </si>
   <si>
     <t>金額を計算</t>
-  </si>
-  <si>
-    <t>TuanAnh</t>
   </si>
   <si>
     <t>データの並び替え</t>
@@ -186,10 +177,6 @@
   </si>
   <si>
     <t>削除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Thuyet</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -276,12 +263,57 @@
   <si>
     <t>予約をカンセル</t>
   </si>
+  <si>
+    <t>2月7</t>
+  </si>
+  <si>
+    <t>2月8</t>
+  </si>
+  <si>
+    <t>2月9</t>
+  </si>
+  <si>
+    <t>2月19</t>
+  </si>
+  <si>
+    <t>2月20</t>
+  </si>
+  <si>
+    <t>2月21</t>
+  </si>
+  <si>
+    <t>2月22</t>
+  </si>
+  <si>
+    <t>2月23</t>
+  </si>
+  <si>
+    <t>2月24</t>
+  </si>
+  <si>
+    <t>2月25</t>
+  </si>
+  <si>
+    <t>2月26</t>
+  </si>
+  <si>
+    <t>Thuyet</t>
+  </si>
+  <si>
+    <t>V.Toan</t>
+  </si>
+  <si>
+    <t>T.Anh</t>
+  </si>
+  <si>
+    <t>内部設計書</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,8 +352,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +409,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -459,11 +516,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -471,9 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -522,9 +626,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -541,9 +642,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,9 +659,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,9 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -603,20 +695,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1234,891 +1416,1702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:BW43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="6"/>
-    <col min="15" max="16384" width="9.140625" style="9"/>
+    <col min="4" max="4" width="16" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9" style="10" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="8" customWidth="1"/>
+    <col min="12" max="20" width="9" style="8" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="4" customFormat="1" ht="18.75">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:75" s="3" customFormat="1" ht="18.75">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:36" s="7" customFormat="1">
-      <c r="A2" s="16" t="s">
+      <c r="N1" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" s="6" customFormat="1">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="18"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+    </row>
+    <row r="3" spans="1:75">
+      <c r="A3" s="17"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="17"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="18"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="45" t="s">
-        <v>47</v>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+    </row>
+    <row r="4" spans="1:75">
+      <c r="A4" s="17"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="24"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="18"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="45" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="18"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+      <c r="AZ4" s="5"/>
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="5"/>
+      <c r="BE4" s="5"/>
+      <c r="BF4" s="5"/>
+      <c r="BG4" s="5"/>
+      <c r="BH4" s="5"/>
+      <c r="BI4" s="5"/>
+      <c r="BJ4" s="5"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="5"/>
+      <c r="BM4" s="5"/>
+      <c r="BN4" s="5"/>
+      <c r="BO4" s="5"/>
+      <c r="BP4" s="5"/>
+      <c r="BQ4" s="5"/>
+      <c r="BR4" s="5"/>
+      <c r="BS4" s="5"/>
+      <c r="BT4" s="5"/>
+      <c r="BU4" s="5"/>
+      <c r="BV4" s="5"/>
+      <c r="BW4" s="5"/>
+    </row>
+    <row r="5" spans="1:75">
+      <c r="A5" s="17"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="18"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+    </row>
+    <row r="6" spans="1:75" s="7" customFormat="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+    </row>
+    <row r="7" spans="1:75" s="6" customFormat="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+    </row>
+    <row r="8" spans="1:75">
+      <c r="A8" s="17"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="5"/>
+      <c r="BE8" s="5"/>
+      <c r="BF8" s="5"/>
+      <c r="BG8" s="5"/>
+      <c r="BH8" s="5"/>
+      <c r="BI8" s="5"/>
+      <c r="BJ8" s="5"/>
+      <c r="BK8" s="5"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+      <c r="BQ8" s="5"/>
+      <c r="BR8" s="5"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="5"/>
+      <c r="BU8" s="5"/>
+      <c r="BV8" s="5"/>
+      <c r="BW8" s="5"/>
+    </row>
+    <row r="9" spans="1:75" s="6" customFormat="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="5"/>
+      <c r="AU9" s="5"/>
+      <c r="AV9" s="5"/>
+      <c r="AW9" s="5"/>
+      <c r="AX9" s="5"/>
+      <c r="AY9" s="5"/>
+      <c r="AZ9" s="5"/>
+      <c r="BA9" s="5"/>
+      <c r="BB9" s="5"/>
+      <c r="BC9" s="5"/>
+      <c r="BD9" s="5"/>
+      <c r="BE9" s="5"/>
+      <c r="BF9" s="5"/>
+      <c r="BG9" s="5"/>
+      <c r="BH9" s="5"/>
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="5"/>
+      <c r="BK9" s="5"/>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="5"/>
+      <c r="BQ9" s="5"/>
+      <c r="BR9" s="5"/>
+      <c r="BS9" s="5"/>
+      <c r="BT9" s="5"/>
+      <c r="BU9" s="5"/>
+      <c r="BV9" s="5"/>
+      <c r="BW9" s="5"/>
+    </row>
+    <row r="10" spans="1:75">
+      <c r="A10" s="17"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="5"/>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="5"/>
+      <c r="BE10" s="5"/>
+      <c r="BF10" s="5"/>
+      <c r="BG10" s="5"/>
+      <c r="BH10" s="5"/>
+      <c r="BI10" s="5"/>
+      <c r="BJ10" s="5"/>
+      <c r="BK10" s="5"/>
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="5"/>
+      <c r="BQ10" s="5"/>
+      <c r="BR10" s="5"/>
+      <c r="BS10" s="5"/>
+      <c r="BT10" s="5"/>
+      <c r="BU10" s="5"/>
+      <c r="BV10" s="5"/>
+      <c r="BW10" s="5"/>
+    </row>
+    <row r="11" spans="1:75">
+      <c r="A11" s="17"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+      <c r="BQ11" s="5"/>
+      <c r="BR11" s="5"/>
+      <c r="BS11" s="5"/>
+      <c r="BT11" s="5"/>
+      <c r="BU11" s="5"/>
+      <c r="BV11" s="5"/>
+      <c r="BW11" s="5"/>
+    </row>
+    <row r="12" spans="1:75">
+      <c r="A12" s="17"/>
+      <c r="B12" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+      <c r="BQ12" s="5"/>
+      <c r="BR12" s="5"/>
+      <c r="BS12" s="5"/>
+      <c r="BT12" s="5"/>
+      <c r="BU12" s="5"/>
+      <c r="BV12" s="5"/>
+      <c r="BW12" s="5"/>
+    </row>
+    <row r="13" spans="1:75" s="9" customFormat="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+    </row>
+    <row r="14" spans="1:75" s="9" customFormat="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+    </row>
+    <row r="15" spans="1:75">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:36" s="8" customFormat="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="E15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+    </row>
+    <row r="16" spans="1:75">
+      <c r="B16" s="29"/>
+      <c r="C16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="B17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7" spans="1:36" s="7" customFormat="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="44" t="s">
+      <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="B18" s="29"/>
+      <c r="C18" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="B19" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="52"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="B20" s="29"/>
+      <c r="C20" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="B21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+    </row>
+    <row r="22" spans="1:32" s="9" customFormat="1">
+      <c r="B22" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="65"/>
+    </row>
+    <row r="23" spans="1:32" s="9" customFormat="1">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="U23" s="18"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="B24" s="29"/>
+      <c r="C24" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="U24" s="18"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="B25" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="B26" s="29"/>
+      <c r="C26" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="U26" s="18"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="B27" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="U27" s="18"/>
+    </row>
+    <row r="28" spans="1:32" s="9" customFormat="1">
+      <c r="B28" s="69"/>
+      <c r="C28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="68"/>
+    </row>
+    <row r="29" spans="1:32" s="9" customFormat="1">
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="B30" s="32"/>
+      <c r="C30" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="U30" s="18"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="B31" s="29"/>
+      <c r="C31" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="B32" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="B33" s="29"/>
+      <c r="C33" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="B34" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="60"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="B35" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57"/>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="B36" s="32"/>
+      <c r="C36" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="B37" s="29"/>
+      <c r="C37" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="B38" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="M38" s="57"/>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="B39" s="32"/>
+      <c r="C39" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:36" ht="30">
-      <c r="A8" s="18"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="17"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-    </row>
-    <row r="9" spans="1:36" s="7" customFormat="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" s="18"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="17"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="18"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="17"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:36">
-      <c r="A12" s="18"/>
-      <c r="B12" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="27"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:36" s="10" customFormat="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-    </row>
-    <row r="14" spans="1:36" s="21" customFormat="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="B17" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="B18" s="36"/>
-      <c r="C18" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="B19" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="B20" s="36"/>
-      <c r="C20" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="B21" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-    </row>
-    <row r="22" spans="1:26" ht="30">
-      <c r="B22" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:26" s="31" customFormat="1">
-      <c r="A23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="B25" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:26" ht="45">
-      <c r="B26" s="36"/>
-      <c r="C26" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="B27" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:26" ht="30">
-      <c r="B28" s="36"/>
-      <c r="C28" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:26" s="31" customFormat="1">
-      <c r="A29" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="B31" s="36"/>
-      <c r="C31" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="B32" s="36"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="10"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="2:4" ht="30">
-      <c r="B34" s="36"/>
-      <c r="C34" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="10"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="36"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="36"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="10"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="36"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="10"/>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="36"/>
-      <c r="C40" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="10"/>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="36"/>
-      <c r="C41" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="36"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="10"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="38" t="s">
+      <c r="D39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="5"/>
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="B40" s="29"/>
+      <c r="C40" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="36"/>
-      <c r="C44" s="45" t="s">
+      <c r="D40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="62"/>
+      <c r="B41" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="2:4" ht="30">
-      <c r="B45" s="36"/>
-      <c r="C45" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="36"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="36"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="36"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="10"/>
+      <c r="C41" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="59"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="61"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="B42" s="46"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="B43" s="46"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2131,26 +3124,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2161,7 +3154,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2169,7 +3162,7 @@
         <v>1.2</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2177,7 +3170,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2185,7 +3178,7 @@
         <v>1.4</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2196,7 +3189,7 @@
         <v>2.1</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2204,7 +3197,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2214,7 +3207,7 @@
       <c r="B10">
         <v>3.1</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="76">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -2222,7 +3215,7 @@
       <c r="B11">
         <v>3.2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="76">
         <v>1.2</v>
       </c>
     </row>
@@ -2231,7 +3224,7 @@
         <v>3.3</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2242,7 +3235,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2250,7 +3243,7 @@
         <v>4.2</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2258,7 +3251,7 @@
         <v>4.3</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2269,7 +3262,7 @@
         <v>11.1</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2277,7 +3270,7 @@
         <v>11.2</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2288,7 +3281,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2296,7 +3289,7 @@
         <v>16.2</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2307,7 +3300,7 @@
         <v>17.100000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2315,7 +3308,7 @@
         <v>17.2</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2328,14 +3321,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C20:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="20" spans="3:9">
-      <c r="F20" s="34"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="22" spans="3:9">
       <c r="I22" t="s">
@@ -2349,7 +3342,7 @@
     </row>
     <row r="54" spans="3:9">
       <c r="C54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
@@ -2393,15 +3386,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2415,19 +3408,19 @@
   <dimension ref="C24:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="24" spans="3:10">
       <c r="J24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="3:10">
       <c r="C28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
   <si>
     <t>大項目</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>内部設計書</t>
+  </si>
+  <si>
+    <t>金額を計算する</t>
   </si>
 </sst>
 </file>
@@ -1418,9 +1421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3078,7 +3081,7 @@
         <v>35</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>89</v>
@@ -3386,7 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3407,8 +3410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C24:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="会議室管理" sheetId="6" r:id="rId6"/>
     <sheet name="予約する" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
   <si>
     <t>大項目</t>
   </si>
@@ -310,6 +310,15 @@
   </si>
   <si>
     <t>金額を計算する</t>
+  </si>
+  <si>
+    <t>金額を報告</t>
+  </si>
+  <si>
+    <t>検索しました</t>
+  </si>
+  <si>
+    <t>入力情報が存在しない。</t>
   </si>
 </sst>
 </file>
@@ -1131,6 +1140,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>505320</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>67416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="kennsaku.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="5619750"/>
+          <a:ext cx="3543795" cy="5306166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438552</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="keisan.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="5524500"/>
+          <a:ext cx="2876952" cy="4572638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1421,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3125,10 +3210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3278,40 +3363,70 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>16.100000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22">
-        <v>16.2</v>
+        <v>15.2</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>17.100000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25">
+        <v>16.2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28">
         <v>17.2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3389,7 +3504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3408,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C24:J28"/>
+  <dimension ref="C24:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3426,6 +3541,16 @@
         <v>27</v>
       </c>
     </row>
+    <row r="56" spans="3:10">
+      <c r="J56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -337,7 +337,7 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -345,13 +345,13 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -359,7 +359,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -367,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -833,13 +833,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -857,8 +857,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="3552825" cy="4791075"/>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="3933825" cy="4314825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1023,6 +1023,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Capture.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="342900"/>
+          <a:ext cx="4448175" cy="4314825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -1062,7 +1105,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1507,26 +1550,26 @@
   <dimension ref="A1:BW43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="8" customWidth="1"/>
     <col min="6" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="8" customWidth="1"/>
+    <col min="7" max="10" width="9.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="8" customWidth="1"/>
     <col min="12" max="20" width="9" style="8" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="8" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="8"/>
+    <col min="21" max="21" width="9.125" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9.125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="3" customFormat="1" ht="18.75">
+    <row r="1" spans="1:75" s="3" customFormat="1" ht="17.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3212,15 +3255,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3439,11 +3482,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C20:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C21:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="20" spans="3:9">
       <c r="F20" s="30"/>
@@ -3480,9 +3523,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3490,13 +3535,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3504,11 +3551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S35" sqref="S27:AJ35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
@@ -3516,6 +3563,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3525,11 +3573,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C24:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="24" spans="3:10">
       <c r="J24" t="s">
@@ -3552,6 +3600,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -15,7 +15,7 @@
     <sheet name="会議室管理" sheetId="6" r:id="rId6"/>
     <sheet name="予約する" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1024,19 +1024,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>114299</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Capture.PNG"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="5.PNG"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1049,8 +1049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1162050" y="342900"/>
-          <a:ext cx="4448175" cy="4314825"/>
+          <a:off x="800099" y="342900"/>
+          <a:ext cx="4333875" cy="4276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,8 +1550,8 @@
   <dimension ref="A1:BW43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -3253,10 +3253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3470,6 +3470,14 @@
       </c>
       <c r="C30" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>6.1</v>
       </c>
     </row>
   </sheetData>
@@ -3535,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>大項目</t>
   </si>
@@ -319,6 +319,36 @@
   </si>
   <si>
     <t>入力情報が存在しない。</t>
+  </si>
+  <si>
+    <t>adminではありませんですから、あらわしません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>adminではありませんですから、検索しません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>adminではありませんですから、許さない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ぜひか？</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>失敗</t>
+    <rPh sb="0" eb="2">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1024,19 +1054,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="5.PNG"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="51.PNG"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1049,8 +1079,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800099" y="342900"/>
-          <a:ext cx="4333875" cy="4276725"/>
+          <a:off x="1047750" y="495300"/>
+          <a:ext cx="4610100" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="61.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="4972049"/>
+          <a:ext cx="4667250" cy="4829175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>143612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="9.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="4810125"/>
+          <a:ext cx="4191000" cy="5277587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,8 +1656,8 @@
   <dimension ref="A1:BW43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -3253,10 +3359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3472,17 +3578,67 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
         <v>6</v>
       </c>
-      <c r="B32">
+      <c r="B46">
         <v>6.1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>9.1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="B48">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>9.4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3490,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C20:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C21:D27"/>
     </sheetView>
   </sheetViews>
@@ -3543,8 +3699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t>大項目</t>
   </si>
@@ -321,10 +321,6 @@
     <t>入力情報が存在しない。</t>
   </si>
   <si>
-    <t>adminではありませんですから、あらわしません。</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>adminではありませんですから、検索しません。</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -348,6 +344,14 @@
     <rPh sb="0" eb="2">
       <t>セイコウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>adminではありませんですから、あらわしません。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>adminではありませんですから、あらわしません。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1054,13 +1058,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1079,8 +1083,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="495300"/>
-          <a:ext cx="4610100" cy="4276725"/>
+          <a:off x="1352550" y="495300"/>
+          <a:ext cx="4181475" cy="4276725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1092,15 +1096,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1117,8 +1121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="4972049"/>
-          <a:ext cx="4667250" cy="4829175"/>
+          <a:off x="1323975" y="4981574"/>
+          <a:ext cx="4438649" cy="4829175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1136,7 +1140,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>143612</xdr:rowOff>
     </xdr:to>
@@ -1156,7 +1160,45 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6943725" y="4810125"/>
-          <a:ext cx="4191000" cy="5277587"/>
+          <a:ext cx="4286250" cy="5277587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>467220</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="7.PNG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905626" y="342900"/>
+          <a:ext cx="3848594" cy="4248743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1657,7 +1699,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -3359,10 +3401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3586,7 +3628,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3597,42 +3639,53 @@
         <v>6.1</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>7.1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
         <v>9</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>9.1</v>
       </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="B48">
-        <v>9.1999999999999993</v>
-      </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="B49">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
         <v>9.4</v>
       </c>
-      <c r="C50" t="s">
-        <v>99</v>
+      <c r="C51" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3699,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -1135,14 +1135,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>143612</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1159,7 +1159,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6943725" y="4810125"/>
+          <a:off x="6943725" y="5238750"/>
           <a:ext cx="4286250" cy="5277587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3403,7 +3403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -3752,7 +3752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>

--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="15600" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="処理" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,12 @@
     <sheet name="テナントさんの管理" sheetId="5" r:id="rId5"/>
     <sheet name="会議室管理" sheetId="6" r:id="rId6"/>
     <sheet name="予約する" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_GoBack" localSheetId="7">Sheet2!$A$5</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -359,11 +363,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,7 +375,7 @@
       <b/>
       <sz val="14"/>
       <color theme="2"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -379,13 +383,13 @@
       <b/>
       <sz val="14"/>
       <color theme="7" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -393,7 +397,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -401,12 +405,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -845,6 +862,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,7 +1099,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1114,7 +1137,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1152,7 +1175,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1190,7 +1213,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1695,29 +1718,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW43"/>
+  <dimension ref="A1:BW44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
     <col min="6" max="6" width="9" style="10" customWidth="1"/>
-    <col min="7" max="10" width="9.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="8" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="8" customWidth="1"/>
     <col min="12" max="20" width="9" style="8" customWidth="1"/>
-    <col min="21" max="21" width="9.125" style="8" customWidth="1"/>
-    <col min="22" max="16384" width="9.125" style="8"/>
+    <col min="21" max="21" width="9.140625" style="8" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="3" customFormat="1" ht="17.25">
+    <row r="1" spans="1:75" s="3" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1836,20 +1859,15 @@
       <c r="AO2" s="5"/>
       <c r="AP2" s="5"/>
     </row>
-    <row r="3" spans="1:75">
-      <c r="A3" s="17"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="11"/>
+    <row r="3" spans="1:75" s="6" customFormat="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1884,67 +1902,43 @@
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
     </row>
     <row r="4" spans="1:75">
       <c r="A4" s="17"/>
       <c r="B4" s="35"/>
-      <c r="C4" s="40" t="s">
-        <v>44</v>
+      <c r="C4" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="24"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="18"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -1995,7 +1989,7 @@
       <c r="A5" s="17"/>
       <c r="B5" s="35"/>
       <c r="C5" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>89</v>
@@ -2004,10 +1998,9 @@
         <v>7</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -2065,110 +2058,101 @@
       <c r="BV5" s="5"/>
       <c r="BW5" s="5"/>
     </row>
-    <row r="6" spans="1:75" s="7" customFormat="1">
+    <row r="6" spans="1:75">
       <c r="A6" s="17"/>
-      <c r="B6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="AZ6" s="10"/>
-      <c r="BA6" s="10"/>
-      <c r="BB6" s="10"/>
-      <c r="BC6" s="10"/>
-      <c r="BD6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="10"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10"/>
-      <c r="BK6" s="10"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10"/>
-      <c r="BO6" s="10"/>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10"/>
-      <c r="BR6" s="10"/>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="10"/>
-      <c r="BU6" s="10"/>
-      <c r="BV6" s="10"/>
-      <c r="BW6" s="10"/>
-    </row>
-    <row r="7" spans="1:75" s="6" customFormat="1">
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="18"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="5"/>
+      <c r="BE6" s="5"/>
+      <c r="BF6" s="5"/>
+      <c r="BG6" s="5"/>
+      <c r="BH6" s="5"/>
+      <c r="BI6" s="5"/>
+      <c r="BJ6" s="5"/>
+      <c r="BK6" s="5"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="5"/>
+      <c r="BN6" s="5"/>
+      <c r="BO6" s="5"/>
+      <c r="BP6" s="5"/>
+      <c r="BQ6" s="5"/>
+      <c r="BR6" s="5"/>
+      <c r="BS6" s="5"/>
+      <c r="BT6" s="5"/>
+      <c r="BU6" s="5"/>
+      <c r="BV6" s="5"/>
+      <c r="BW6" s="5"/>
+    </row>
+    <row r="7" spans="1:75" s="7" customFormat="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -2178,71 +2162,71 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="16"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="5"/>
-      <c r="BB7" s="5"/>
-      <c r="BC7" s="5"/>
-      <c r="BD7" s="5"/>
-      <c r="BE7" s="5"/>
-      <c r="BF7" s="5"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="5"/>
-      <c r="BN7" s="5"/>
-      <c r="BO7" s="5"/>
-      <c r="BP7" s="5"/>
-      <c r="BQ7" s="5"/>
-      <c r="BR7" s="5"/>
-      <c r="BS7" s="5"/>
-      <c r="BT7" s="5"/>
-      <c r="BU7" s="5"/>
-      <c r="BV7" s="5"/>
-      <c r="BW7" s="5"/>
-    </row>
-    <row r="8" spans="1:75">
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="10"/>
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10"/>
+    </row>
+    <row r="8" spans="1:75" s="6" customFormat="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="45" t="s">
-        <v>47</v>
+      <c r="B8" s="35"/>
+      <c r="C8" s="39" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="24"/>
@@ -2250,8 +2234,9 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2315,18 +2300,16 @@
       <c r="BV8" s="5"/>
       <c r="BW8" s="5"/>
     </row>
-    <row r="9" spans="1:75" s="6" customFormat="1">
+    <row r="9" spans="1:75">
       <c r="A9" s="17"/>
-      <c r="B9" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="24"/>
@@ -2334,10 +2317,9 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -2400,16 +2382,18 @@
       <c r="BV9" s="5"/>
       <c r="BW9" s="5"/>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:75" s="6" customFormat="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="24"/>
@@ -2420,8 +2404,8 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
@@ -2487,7 +2471,7 @@
       <c r="A11" s="17"/>
       <c r="B11" s="35"/>
       <c r="C11" s="39" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>89</v>
@@ -2504,8 +2488,8 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
@@ -2568,16 +2552,14 @@
     </row>
     <row r="12" spans="1:75">
       <c r="A12" s="17"/>
-      <c r="B12" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="24"/>
@@ -2590,8 +2572,8 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -2651,16 +2633,18 @@
       <c r="BV12" s="5"/>
       <c r="BW12" s="5"/>
     </row>
-    <row r="13" spans="1:75" s="9" customFormat="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="9" t="s">
+    <row r="13" spans="1:75">
+      <c r="A13" s="17"/>
+      <c r="B13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="24"/>
@@ -2674,51 +2658,94 @@
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="5"/>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="5"/>
+      <c r="AX13" s="5"/>
+      <c r="AY13" s="5"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="5"/>
+      <c r="BB13" s="5"/>
+      <c r="BC13" s="5"/>
+      <c r="BD13" s="5"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="BR13" s="5"/>
+      <c r="BS13" s="5"/>
+      <c r="BT13" s="5"/>
+      <c r="BU13" s="5"/>
+      <c r="BV13" s="5"/>
+      <c r="BW13" s="5"/>
     </row>
     <row r="14" spans="1:75" s="9" customFormat="1">
       <c r="A14" s="7"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="27"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
@@ -2731,62 +2758,64 @@
       <c r="AE14" s="10"/>
       <c r="AF14" s="10"/>
     </row>
-    <row r="15" spans="1:75">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:75" s="9" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+    </row>
+    <row r="16" spans="1:75">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B16" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C16" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-    </row>
-    <row r="16" spans="1:75">
-      <c r="B16" s="29"/>
-      <c r="C16" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -2811,20 +2840,21 @@
       <c r="AF16" s="5"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="B17" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="62" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="K17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2848,21 +2878,23 @@
       <c r="AF17" s="5"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="B18" s="29"/>
-      <c r="C18" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="62" t="s">
+      <c r="B18" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -2883,24 +2915,23 @@
       <c r="AF18" s="5"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="B19" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="62" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="24"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -2919,14 +2950,16 @@
       <c r="AF19" s="5"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="B20" s="29"/>
-      <c r="C20" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="62" t="s">
+      <c r="B20" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="24"/>
@@ -2934,8 +2967,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="52"/>
+      <c r="O20" s="52"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -2954,16 +2986,14 @@
       <c r="AF20" s="5"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="B21" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="62" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="24"/>
@@ -2972,10 +3002,10 @@
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="16"/>
       <c r="V21" s="5"/>
@@ -2990,407 +3020,444 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:32" s="9" customFormat="1">
-      <c r="B22" s="70" t="s">
+    <row r="22" spans="1:32">
+      <c r="B22" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+    </row>
+    <row r="23" spans="1:32" s="9" customFormat="1">
+      <c r="B23" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D23" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E23" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="65"/>
-    </row>
-    <row r="23" spans="1:32" s="9" customFormat="1">
-      <c r="A23" s="4" t="s">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="65"/>
+    </row>
+    <row r="24" spans="1:32" s="9" customFormat="1">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="U23" s="18"/>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="B24" s="29"/>
-      <c r="C24" s="49" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="U24" s="18"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="B25" s="29"/>
+      <c r="C25" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E25" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="U24" s="18"/>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="B25" s="31" t="s">
+      <c r="F25" s="24"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="B26" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="U25" s="18"/>
-    </row>
-    <row r="26" spans="1:32">
-      <c r="B26" s="29"/>
-      <c r="C26" s="43" t="s">
+      <c r="F26" s="24"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="U26" s="18"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="B27" s="29"/>
+      <c r="C27" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E27" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="U26" s="18"/>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="B27" s="31" t="s">
+      <c r="F27" s="24"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="U27" s="18"/>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="B28" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C28" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="U27" s="18"/>
-    </row>
-    <row r="28" spans="1:32" s="9" customFormat="1">
-      <c r="B28" s="69"/>
-      <c r="C28" s="19" t="s">
+      <c r="F28" s="24"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="U28" s="18"/>
+    </row>
+    <row r="29" spans="1:32" s="9" customFormat="1">
+      <c r="B29" s="69"/>
+      <c r="C29" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E29" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="68"/>
-    </row>
-    <row r="29" spans="1:32" s="9" customFormat="1">
-      <c r="A29" s="4" t="s">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="68"/>
+    </row>
+    <row r="30" spans="1:32" s="9" customFormat="1">
+      <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B30" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C30" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="U29" s="18"/>
-    </row>
-    <row r="30" spans="1:32">
-      <c r="B30" s="32"/>
-      <c r="C30" s="40" t="s">
+      <c r="F30" s="55"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="U30" s="18"/>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="B31" s="32"/>
+      <c r="C31" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="U30" s="18"/>
-    </row>
-    <row r="31" spans="1:32">
-      <c r="B31" s="29"/>
-      <c r="C31" s="49" t="s">
+      <c r="F31" s="24"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="B32" s="29"/>
+      <c r="C32" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D32" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E32" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="U31" s="18"/>
-    </row>
-    <row r="32" spans="1:32">
-      <c r="B32" s="33" t="s">
+      <c r="F32" s="24"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="B33" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="U32" s="18"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="B33" s="29"/>
-      <c r="C33" s="43" t="s">
+      <c r="F33" s="24"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="B34" s="29"/>
+      <c r="C34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E34" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="54"/>
-      <c r="U33" s="18"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="B34" s="71" t="s">
+      <c r="F34" s="24"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="B35" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C35" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D35" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="74" t="s">
+      <c r="E35" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-      <c r="U34" s="60"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="B35" s="33" t="s">
+      <c r="F35" s="24"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="60"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="B36" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C36" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
-      <c r="U35" s="18"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="B36" s="32"/>
-      <c r="C36" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
       <c r="U36" s="18"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="B37" s="29"/>
-      <c r="C37" s="75" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="B38" s="29"/>
+      <c r="C38" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D38" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="62" t="s">
+      <c r="E38" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="U37" s="18"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="B38" s="33" t="s">
+      <c r="F38" s="24"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="B39" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C39" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="M38" s="57"/>
-      <c r="U38" s="18"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="B39" s="32"/>
-      <c r="C39" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>87</v>
       </c>
       <c r="F39" s="24"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="5"/>
+      <c r="M39" s="57"/>
       <c r="U39" s="18"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="B40" s="29"/>
-      <c r="C40" s="43" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="5"/>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="B41" s="29"/>
+      <c r="C41" s="43" t="s">
         <v>34</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="U40" s="18"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="62"/>
-      <c r="B41" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>90</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="61"/>
+      <c r="F41" s="24"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="U41" s="18"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="B42" s="46"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="61"/>
     </row>
     <row r="43" spans="1:21">
       <c r="B43" s="46"/>
       <c r="C43" s="50"/>
       <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="B44" s="46"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3403,15 +3470,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="49.25" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3703,7 +3770,7 @@
       <selection activeCell="C27" sqref="C21:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="20" spans="3:9">
       <c r="F20" s="30"/>
@@ -3740,7 +3807,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3752,11 +3819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3768,11 +3835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S35" sqref="S27:AJ35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
@@ -3790,11 +3857,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C24:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="24" spans="3:10">
       <c r="J24" t="s">
@@ -3821,4 +3888,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/design.xlsx
+++ b/trunk/design.xlsx
@@ -491,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -580,19 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -600,40 +587,27 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -692,18 +666,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -713,9 +681,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -764,9 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
@@ -776,97 +738,121 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1718,11 +1704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW44"/>
+  <dimension ref="A1:FR83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1731,12 +1717,12 @@
     <col min="2" max="2" width="21.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="18" customWidth="1"/>
     <col min="6" max="6" width="9" style="10" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" style="8" customWidth="1"/>
     <col min="12" max="20" width="9" style="8" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="18" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -1744,64 +1730,64 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="73" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1809,19 +1795,19 @@
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -1860,12 +1846,12 @@
       <c r="AP2" s="5"/>
     </row>
     <row r="3" spans="1:75" s="6" customFormat="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -1905,17 +1891,16 @@
     </row>
     <row r="4" spans="1:75">
       <c r="A4" s="17"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="36" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="24"/>
       <c r="G4" s="11"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1987,31 +1972,33 @@
     </row>
     <row r="5" spans="1:75">
       <c r="A5" s="17"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="16"/>
+      <c r="G5" s="75"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="18"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
@@ -2060,21 +2047,19 @@
     </row>
     <row r="6" spans="1:75">
       <c r="A6" s="17"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="40" t="s">
-        <v>45</v>
+      <c r="B6" s="32"/>
+      <c r="C6" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -2085,7 +2070,6 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="18"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
@@ -2132,128 +2116,96 @@
       <c r="BV6" s="5"/>
       <c r="BW6" s="5"/>
     </row>
-    <row r="7" spans="1:75" s="7" customFormat="1">
+    <row r="7" spans="1:75">
       <c r="A7" s="17"/>
-      <c r="B7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="10"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="10"/>
-      <c r="BD7" s="10"/>
-      <c r="BE7" s="10"/>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10"/>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
-      <c r="BR7" s="10"/>
-      <c r="BS7" s="10"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="10"/>
-      <c r="BV7" s="10"/>
-      <c r="BW7" s="10"/>
-    </row>
-    <row r="8" spans="1:75" s="6" customFormat="1">
+      <c r="B7" s="32"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="10"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+    </row>
+    <row r="8" spans="1:75">
       <c r="A8" s="17"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="39" t="s">
-        <v>31</v>
+      <c r="B8" s="32"/>
+      <c r="C8" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="24"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
@@ -2302,40 +2254,23 @@
     </row>
     <row r="9" spans="1:75">
       <c r="A9" s="17"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="24"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
@@ -2382,29 +2317,29 @@
       <c r="BV9" s="5"/>
       <c r="BW9" s="5"/>
     </row>
-    <row r="10" spans="1:75" s="6" customFormat="1">
+    <row r="10" spans="1:75" s="7" customFormat="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>23</v>
+      <c r="B10" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
+      <c r="N10" s="10"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -2412,167 +2347,161 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
-      <c r="BK10" s="5"/>
-      <c r="BL10" s="5"/>
-      <c r="BM10" s="5"/>
-      <c r="BN10" s="5"/>
-      <c r="BO10" s="5"/>
-      <c r="BP10" s="5"/>
-      <c r="BQ10" s="5"/>
-      <c r="BR10" s="5"/>
-      <c r="BS10" s="5"/>
-      <c r="BT10" s="5"/>
-      <c r="BU10" s="5"/>
-      <c r="BV10" s="5"/>
-      <c r="BW10" s="5"/>
-    </row>
-    <row r="11" spans="1:75">
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10"/>
+      <c r="BG10" s="10"/>
+      <c r="BH10" s="10"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="10"/>
+      <c r="BK10" s="10"/>
+      <c r="BL10" s="10"/>
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="10"/>
+      <c r="BO10" s="10"/>
+      <c r="BP10" s="10"/>
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="10"/>
+      <c r="BS10" s="10"/>
+      <c r="BT10" s="10"/>
+      <c r="BU10" s="10"/>
+      <c r="BV10" s="10"/>
+      <c r="BW10" s="10"/>
+    </row>
+    <row r="11" spans="1:75" s="7" customFormat="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="24"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="43"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="16"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="5"/>
-      <c r="BN11" s="5"/>
-      <c r="BO11" s="5"/>
-      <c r="BP11" s="5"/>
-      <c r="BQ11" s="5"/>
-      <c r="BR11" s="5"/>
-      <c r="BS11" s="5"/>
-      <c r="BT11" s="5"/>
-      <c r="BU11" s="5"/>
-      <c r="BV11" s="5"/>
-      <c r="BW11" s="5"/>
-    </row>
-    <row r="12" spans="1:75">
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+      <c r="AX11" s="10"/>
+      <c r="AY11" s="10"/>
+      <c r="AZ11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10"/>
+      <c r="BG11" s="10"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10"/>
+      <c r="BL11" s="10"/>
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10"/>
+      <c r="BR11" s="10"/>
+      <c r="BS11" s="10"/>
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="10"/>
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="10"/>
+    </row>
+    <row r="12" spans="1:75" s="6" customFormat="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39" t="s">
-        <v>56</v>
+      <c r="B12" s="32"/>
+      <c r="C12" s="36" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
@@ -2633,32 +2562,24 @@
       <c r="BV12" s="5"/>
       <c r="BW12" s="5"/>
     </row>
-    <row r="13" spans="1:75">
+    <row r="13" spans="1:75" s="6" customFormat="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="24"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -2718,114 +2639,191 @@
       <c r="BV13" s="5"/>
       <c r="BW13" s="5"/>
     </row>
-    <row r="14" spans="1:75" s="9" customFormat="1">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:75">
+      <c r="A14" s="17"/>
       <c r="B14" s="32"/>
-      <c r="C14" s="40" t="s">
-        <v>48</v>
+      <c r="C14" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="24"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
       <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
+      <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="16"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-    </row>
-    <row r="15" spans="1:75" s="9" customFormat="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="62" t="s">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
+      <c r="BP14" s="5"/>
+      <c r="BQ14" s="5"/>
+      <c r="BR14" s="5"/>
+      <c r="BS14" s="5"/>
+      <c r="BT14" s="5"/>
+      <c r="BU14" s="5"/>
+      <c r="BV14" s="5"/>
+      <c r="BW14" s="5"/>
+    </row>
+    <row r="15" spans="1:75">
+      <c r="A15" s="17"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="63"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="5"/>
+      <c r="BB15" s="5"/>
+      <c r="BC15" s="5"/>
+      <c r="BD15" s="5"/>
+      <c r="BE15" s="5"/>
+      <c r="BF15" s="5"/>
+      <c r="BG15" s="5"/>
+      <c r="BH15" s="5"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
+      <c r="BP15" s="5"/>
+      <c r="BQ15" s="5"/>
+      <c r="BR15" s="5"/>
+      <c r="BS15" s="5"/>
+      <c r="BT15" s="5"/>
+      <c r="BU15" s="5"/>
+      <c r="BV15" s="5"/>
+      <c r="BW15" s="5"/>
+    </row>
+    <row r="16" spans="1:75" s="6" customFormat="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-    </row>
-    <row r="16" spans="1:75">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
       <c r="U16" s="16"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -2838,32 +2836,71 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="B17" s="29"/>
-      <c r="C17" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
+      <c r="AS16" s="5"/>
+      <c r="AT16" s="5"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5"/>
+      <c r="BR16" s="5"/>
+      <c r="BS16" s="5"/>
+      <c r="BT16" s="5"/>
+      <c r="BU16" s="5"/>
+      <c r="BV16" s="5"/>
+      <c r="BW16" s="5"/>
+    </row>
+    <row r="17" spans="1:75" s="6" customFormat="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
       <c r="U17" s="16"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -2876,31 +2913,76 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
-    </row>
-    <row r="18" spans="1:32">
-      <c r="B18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="24"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+    </row>
+    <row r="18" spans="1:75">
+      <c r="A18" s="17"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
       <c r="U18" s="16"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -2913,29 +2995,70 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
-    </row>
-    <row r="19" spans="1:32">
-      <c r="B19" s="29"/>
-      <c r="C19" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+    </row>
+    <row r="19" spans="1:75">
+      <c r="A19" s="17"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="16"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
@@ -2948,30 +3071,76 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
-    </row>
-    <row r="20" spans="1:32">
-      <c r="B20" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="52"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="5"/>
+      <c r="BA19" s="5"/>
+      <c r="BB19" s="5"/>
+      <c r="BC19" s="5"/>
+      <c r="BD19" s="5"/>
+      <c r="BE19" s="5"/>
+      <c r="BF19" s="5"/>
+      <c r="BG19" s="5"/>
+      <c r="BH19" s="5"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
+      <c r="BO19" s="5"/>
+      <c r="BP19" s="5"/>
+      <c r="BQ19" s="5"/>
+      <c r="BR19" s="5"/>
+      <c r="BS19" s="5"/>
+      <c r="BT19" s="5"/>
+      <c r="BU19" s="5"/>
+      <c r="BV19" s="5"/>
+      <c r="BW19" s="5"/>
+    </row>
+    <row r="20" spans="1:75">
+      <c r="A20" s="17"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
       <c r="U20" s="16"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
@@ -2984,29 +3153,70 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
-    </row>
-    <row r="21" spans="1:32">
-      <c r="B21" s="29"/>
-      <c r="C21" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+      <c r="BV20" s="5"/>
+      <c r="BW20" s="5"/>
+    </row>
+    <row r="21" spans="1:75">
+      <c r="A21" s="17"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="16"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
       <c r="U21" s="16"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -3019,31 +3229,78 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
-    </row>
-    <row r="22" spans="1:32">
-      <c r="B22" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+    </row>
+    <row r="22" spans="1:75">
+      <c r="A22" s="17"/>
+      <c r="B22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
       <c r="U22" s="16"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -3056,408 +3313,1723 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
-    </row>
-    <row r="23" spans="1:32" s="9" customFormat="1">
-      <c r="B23" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
+    </row>
+    <row r="23" spans="1:75">
+      <c r="A23" s="7"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BU23" s="5"/>
+      <c r="BV23" s="5"/>
+      <c r="BW23" s="5"/>
+    </row>
+    <row r="24" spans="1:75" s="9" customFormat="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="65"/>
-    </row>
-    <row r="24" spans="1:32" s="9" customFormat="1">
-      <c r="A24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="63"/>
+      <c r="E24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-      <c r="U24" s="18"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+    </row>
+    <row r="25" spans="1:75" s="9" customFormat="1">
+      <c r="A25" s="7"/>
       <c r="B25" s="29"/>
-      <c r="C25" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+    </row>
+    <row r="26" spans="1:75" s="9" customFormat="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="U25" s="18"/>
-    </row>
-    <row r="26" spans="1:32">
-      <c r="B26" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="24"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="U26" s="18"/>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="B27" s="29"/>
-      <c r="C27" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="62" t="s">
-        <v>88</v>
-      </c>
+      <c r="E26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+    </row>
+    <row r="27" spans="1:75" s="19" customFormat="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="40"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="24"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="U27" s="18"/>
-    </row>
-    <row r="28" spans="1:32">
-      <c r="B28" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="40" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+    </row>
+    <row r="28" spans="1:75">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="U28" s="18"/>
-    </row>
-    <row r="29" spans="1:32" s="9" customFormat="1">
-      <c r="B29" s="69"/>
-      <c r="C29" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="E28" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="58"/>
+      <c r="G28" s="46"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+    </row>
+    <row r="29" spans="1:75">
+      <c r="A29" s="10"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="76"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+    </row>
+    <row r="30" spans="1:75">
+      <c r="B30" s="29"/>
+      <c r="C30" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="68"/>
-    </row>
-    <row r="30" spans="1:32" s="9" customFormat="1">
-      <c r="A30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="40" t="s">
+      <c r="E30" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+    </row>
+    <row r="31" spans="1:75" s="9" customFormat="1">
+      <c r="B31" s="29"/>
+      <c r="C31" s="37"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+    </row>
+    <row r="32" spans="1:75">
+      <c r="B32" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="U30" s="18"/>
-    </row>
-    <row r="31" spans="1:32">
-      <c r="B31" s="32"/>
-      <c r="C31" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="U31" s="18"/>
-    </row>
-    <row r="32" spans="1:32">
-      <c r="B32" s="29"/>
-      <c r="C32" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="U32" s="18"/>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="B33" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="U33" s="18"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="B34" s="29"/>
-      <c r="C34" s="43" t="s">
-        <v>29</v>
+      <c r="E32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+    </row>
+    <row r="33" spans="1:32">
+      <c r="B33" s="54"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="9"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="B34" s="26"/>
+      <c r="C34" s="40" t="s">
+        <v>52</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E34" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="24"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="54"/>
-      <c r="U34" s="18"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="B35" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-      <c r="U35" s="60"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="B36" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="40" t="s">
+      <c r="E34" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+    </row>
+    <row r="35" spans="1:32">
+      <c r="B35" s="29"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="9"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+    </row>
+    <row r="36" spans="1:32">
+      <c r="B36" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="U36" s="18"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="B37" s="32"/>
-      <c r="C37" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="U37" s="18"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="B38" s="29"/>
-      <c r="C38" s="75" t="s">
-        <v>30</v>
+      <c r="E36" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="46"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+    </row>
+    <row r="37" spans="1:32">
+      <c r="B37" s="54"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="9"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="76"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+    </row>
+    <row r="38" spans="1:32">
+      <c r="B38" s="26"/>
+      <c r="C38" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="U38" s="18"/>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="B39" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="M39" s="57"/>
-      <c r="U39" s="18"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="B40" s="32"/>
-      <c r="C40" s="40" t="s">
-        <v>33</v>
+      <c r="E38" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+    </row>
+    <row r="39" spans="1:32">
+      <c r="B39" s="29"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="9"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="76"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+    </row>
+    <row r="40" spans="1:32">
+      <c r="B40" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+    </row>
+    <row r="41" spans="1:32">
+      <c r="B41" s="54"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="9"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+    </row>
+    <row r="42" spans="1:32" s="9" customFormat="1">
+      <c r="B42" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="59"/>
+    </row>
+    <row r="43" spans="1:32" s="19" customFormat="1">
+      <c r="B43" s="67"/>
+      <c r="C43" s="40"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="82"/>
+    </row>
+    <row r="44" spans="1:32" s="9" customFormat="1">
+      <c r="A44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="U44" s="18"/>
+    </row>
+    <row r="45" spans="1:32" s="9" customFormat="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="37"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="U45" s="18"/>
+    </row>
+    <row r="46" spans="1:32">
+      <c r="B46" s="29"/>
+      <c r="C46" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="1:32" s="9" customFormat="1">
+      <c r="B47" s="29"/>
+      <c r="C47" s="37"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="U47" s="18"/>
+    </row>
+    <row r="48" spans="1:32">
+      <c r="B48" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="B49" s="54"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="9"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="B50" s="29"/>
+      <c r="C50" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M50" s="47"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+    </row>
+    <row r="51" spans="1:21" s="9" customFormat="1">
+      <c r="B51" s="29"/>
+      <c r="C51" s="57"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="U51" s="18"/>
+    </row>
+    <row r="52" spans="1:21" s="9" customFormat="1">
+      <c r="B52" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="B53" s="54"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="9"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+    </row>
+    <row r="54" spans="1:21" s="9" customFormat="1">
+      <c r="B54" s="65"/>
+      <c r="C54" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="60"/>
+    </row>
+    <row r="55" spans="1:21" s="19" customFormat="1">
+      <c r="B55" s="26"/>
+      <c r="C55" s="40"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="78"/>
+    </row>
+    <row r="56" spans="1:21" s="9" customFormat="1">
+      <c r="A56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="71"/>
+    </row>
+    <row r="57" spans="1:21" s="9" customFormat="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="37"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="U57" s="18"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="B58" s="29"/>
+      <c r="C58" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="B59" s="29"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="9"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="B60" s="29"/>
+      <c r="C60" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+    </row>
+    <row r="61" spans="1:21" s="9" customFormat="1">
+      <c r="B61" s="29"/>
+      <c r="C61" s="37"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="75"/>
+      <c r="M61" s="75"/>
+      <c r="U61" s="18"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="B62" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="B63" s="54"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="9"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="75"/>
+      <c r="N63" s="75"/>
+      <c r="O63" s="75"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="B64" s="29"/>
+      <c r="C64" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+    </row>
+    <row r="65" spans="1:174" s="9" customFormat="1">
+      <c r="B65" s="29"/>
+      <c r="C65" s="57"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="O65" s="75"/>
+      <c r="P65" s="75"/>
+      <c r="Q65" s="75"/>
+      <c r="U65" s="18"/>
+    </row>
+    <row r="66" spans="1:174">
+      <c r="B66" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="22"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="52"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="49"/>
+    </row>
+    <row r="67" spans="1:174" s="9" customFormat="1">
+      <c r="B67" s="54"/>
+      <c r="C67" s="37"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="77"/>
+      <c r="T67" s="77"/>
+      <c r="U67" s="78"/>
+    </row>
+    <row r="68" spans="1:174">
+      <c r="B68" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="5"/>
-      <c r="U40" s="18"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="B41" s="29"/>
-      <c r="C41" s="43" t="s">
+      <c r="F68" s="62"/>
+      <c r="G68" s="48"/>
+    </row>
+    <row r="69" spans="1:174">
+      <c r="B69" s="54"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="9"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="76"/>
+    </row>
+    <row r="70" spans="1:174">
+      <c r="B70" s="29"/>
+      <c r="C70" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+    </row>
+    <row r="71" spans="1:174">
+      <c r="B71" s="29"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="9"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="76"/>
+    </row>
+    <row r="72" spans="1:174">
+      <c r="B72" s="29"/>
+      <c r="C72" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+    </row>
+    <row r="73" spans="1:174" s="9" customFormat="1">
+      <c r="B73" s="29"/>
+      <c r="C73" s="61"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="U73" s="18"/>
+    </row>
+    <row r="74" spans="1:174" s="9" customFormat="1">
+      <c r="B74" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="M74" s="62"/>
+      <c r="U74" s="18"/>
+    </row>
+    <row r="75" spans="1:174">
+      <c r="B75" s="54"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="9"/>
+      <c r="M75" s="76"/>
+      <c r="N75" s="76"/>
+    </row>
+    <row r="76" spans="1:174">
+      <c r="B76" s="29"/>
+      <c r="C76" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="5"/>
+    </row>
+    <row r="77" spans="1:174">
+      <c r="B77" s="29"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="9"/>
+      <c r="N77" s="76"/>
+      <c r="O77" s="76"/>
+      <c r="P77" s="5"/>
+    </row>
+    <row r="78" spans="1:174">
+      <c r="B78" s="29"/>
+      <c r="C78" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D78" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="E78" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="U41" s="18"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="62"/>
-      <c r="B42" s="48" t="s">
+      <c r="P78" s="48"/>
+      <c r="Q78" s="48"/>
+    </row>
+    <row r="79" spans="1:174" s="19" customFormat="1">
+      <c r="A79" s="9"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="40"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="9"/>
+      <c r="AI79" s="9"/>
+      <c r="AJ79" s="9"/>
+      <c r="AK79" s="9"/>
+      <c r="AL79" s="9"/>
+      <c r="AM79" s="9"/>
+      <c r="AN79" s="9"/>
+      <c r="AO79" s="9"/>
+      <c r="AP79" s="9"/>
+      <c r="AQ79" s="9"/>
+      <c r="AR79" s="9"/>
+      <c r="AS79" s="9"/>
+      <c r="AT79" s="9"/>
+      <c r="AU79" s="9"/>
+      <c r="AV79" s="9"/>
+      <c r="AW79" s="9"/>
+      <c r="AX79" s="9"/>
+      <c r="AY79" s="9"/>
+      <c r="AZ79" s="9"/>
+      <c r="BA79" s="9"/>
+      <c r="BB79" s="9"/>
+      <c r="BC79" s="9"/>
+      <c r="BD79" s="9"/>
+      <c r="BE79" s="9"/>
+      <c r="BF79" s="9"/>
+      <c r="BG79" s="9"/>
+      <c r="BH79" s="9"/>
+      <c r="BI79" s="9"/>
+      <c r="BJ79" s="9"/>
+      <c r="BK79" s="9"/>
+      <c r="BL79" s="9"/>
+      <c r="BM79" s="9"/>
+      <c r="BN79" s="9"/>
+      <c r="BO79" s="9"/>
+      <c r="BP79" s="9"/>
+      <c r="BQ79" s="9"/>
+      <c r="BR79" s="9"/>
+      <c r="BS79" s="9"/>
+      <c r="BT79" s="9"/>
+      <c r="BU79" s="9"/>
+      <c r="BV79" s="9"/>
+      <c r="BW79" s="9"/>
+      <c r="BX79" s="9"/>
+      <c r="BY79" s="9"/>
+      <c r="BZ79" s="9"/>
+      <c r="CA79" s="9"/>
+      <c r="CB79" s="9"/>
+      <c r="CC79" s="9"/>
+      <c r="CD79" s="9"/>
+      <c r="CE79" s="9"/>
+      <c r="CF79" s="9"/>
+      <c r="CG79" s="9"/>
+      <c r="CH79" s="9"/>
+      <c r="CI79" s="9"/>
+      <c r="CJ79" s="9"/>
+      <c r="CK79" s="9"/>
+      <c r="CL79" s="9"/>
+      <c r="CM79" s="9"/>
+      <c r="CN79" s="9"/>
+      <c r="CO79" s="9"/>
+      <c r="CP79" s="9"/>
+      <c r="CQ79" s="9"/>
+      <c r="CR79" s="9"/>
+      <c r="CS79" s="9"/>
+      <c r="CT79" s="9"/>
+      <c r="CU79" s="9"/>
+      <c r="CV79" s="9"/>
+      <c r="CW79" s="9"/>
+      <c r="CX79" s="9"/>
+      <c r="CY79" s="9"/>
+      <c r="CZ79" s="9"/>
+      <c r="DA79" s="9"/>
+      <c r="DB79" s="9"/>
+      <c r="DC79" s="9"/>
+      <c r="DD79" s="9"/>
+      <c r="DE79" s="9"/>
+      <c r="DF79" s="9"/>
+      <c r="DG79" s="9"/>
+      <c r="DH79" s="9"/>
+      <c r="DI79" s="9"/>
+      <c r="DJ79" s="9"/>
+      <c r="DK79" s="9"/>
+      <c r="DL79" s="9"/>
+      <c r="DM79" s="9"/>
+      <c r="DN79" s="9"/>
+      <c r="DO79" s="9"/>
+      <c r="DP79" s="9"/>
+      <c r="DQ79" s="9"/>
+      <c r="DR79" s="9"/>
+      <c r="DS79" s="9"/>
+      <c r="DT79" s="9"/>
+      <c r="DU79" s="9"/>
+      <c r="DV79" s="9"/>
+      <c r="DW79" s="9"/>
+      <c r="DX79" s="9"/>
+      <c r="DY79" s="9"/>
+      <c r="DZ79" s="9"/>
+      <c r="EA79" s="9"/>
+      <c r="EB79" s="9"/>
+      <c r="EC79" s="9"/>
+      <c r="ED79" s="9"/>
+      <c r="EE79" s="9"/>
+      <c r="EF79" s="9"/>
+      <c r="EG79" s="9"/>
+      <c r="EH79" s="9"/>
+      <c r="EI79" s="9"/>
+      <c r="EJ79" s="9"/>
+      <c r="EK79" s="9"/>
+      <c r="EL79" s="9"/>
+      <c r="EM79" s="9"/>
+      <c r="EN79" s="9"/>
+      <c r="EO79" s="9"/>
+      <c r="EP79" s="9"/>
+      <c r="EQ79" s="9"/>
+      <c r="ER79" s="9"/>
+      <c r="ES79" s="9"/>
+      <c r="ET79" s="9"/>
+      <c r="EU79" s="9"/>
+      <c r="EV79" s="9"/>
+      <c r="EW79" s="9"/>
+      <c r="EX79" s="9"/>
+      <c r="EY79" s="9"/>
+      <c r="EZ79" s="9"/>
+      <c r="FA79" s="9"/>
+      <c r="FB79" s="9"/>
+      <c r="FC79" s="9"/>
+      <c r="FD79" s="9"/>
+      <c r="FE79" s="9"/>
+      <c r="FF79" s="9"/>
+      <c r="FG79" s="9"/>
+      <c r="FH79" s="9"/>
+      <c r="FI79" s="9"/>
+      <c r="FJ79" s="9"/>
+      <c r="FK79" s="9"/>
+      <c r="FL79" s="9"/>
+      <c r="FM79" s="9"/>
+      <c r="FN79" s="9"/>
+      <c r="FO79" s="9"/>
+      <c r="FP79" s="9"/>
+      <c r="FQ79" s="9"/>
+      <c r="FR79" s="9"/>
+    </row>
+    <row r="80" spans="1:174">
+      <c r="B80" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C80" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D80" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E80" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="61"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="B43" s="46"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="B44" s="46"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="9"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="62"/>
+      <c r="S80" s="62"/>
+      <c r="T80" s="62"/>
+      <c r="U80" s="64"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="9"/>
+      <c r="AG80" s="9"/>
+      <c r="AH80" s="9"/>
+      <c r="AI80" s="9"/>
+      <c r="AJ80" s="9"/>
+      <c r="AK80" s="9"/>
+      <c r="AL80" s="9"/>
+      <c r="AM80" s="9"/>
+      <c r="AN80" s="9"/>
+      <c r="AO80" s="9"/>
+      <c r="AP80" s="9"/>
+      <c r="AQ80" s="9"/>
+      <c r="AR80" s="9"/>
+      <c r="AS80" s="9"/>
+      <c r="AT80" s="9"/>
+      <c r="AU80" s="9"/>
+      <c r="AV80" s="9"/>
+      <c r="AW80" s="9"/>
+      <c r="AX80" s="9"/>
+      <c r="AY80" s="9"/>
+      <c r="AZ80" s="9"/>
+      <c r="BA80" s="9"/>
+      <c r="BB80" s="9"/>
+      <c r="BC80" s="9"/>
+      <c r="BD80" s="9"/>
+      <c r="BE80" s="9"/>
+      <c r="BF80" s="9"/>
+      <c r="BG80" s="9"/>
+      <c r="BH80" s="9"/>
+      <c r="BI80" s="9"/>
+      <c r="BJ80" s="9"/>
+      <c r="BK80" s="9"/>
+      <c r="BL80" s="9"/>
+      <c r="BM80" s="9"/>
+      <c r="BN80" s="9"/>
+      <c r="BO80" s="9"/>
+      <c r="BP80" s="9"/>
+      <c r="BQ80" s="9"/>
+      <c r="BR80" s="9"/>
+      <c r="BS80" s="9"/>
+      <c r="BT80" s="9"/>
+      <c r="BU80" s="9"/>
+      <c r="BV80" s="9"/>
+      <c r="BW80" s="9"/>
+      <c r="BX80" s="9"/>
+      <c r="BY80" s="9"/>
+      <c r="BZ80" s="9"/>
+      <c r="CA80" s="9"/>
+      <c r="CB80" s="9"/>
+      <c r="CC80" s="9"/>
+      <c r="CD80" s="9"/>
+      <c r="CE80" s="9"/>
+      <c r="CF80" s="9"/>
+      <c r="CG80" s="9"/>
+      <c r="CH80" s="9"/>
+      <c r="CI80" s="9"/>
+      <c r="CJ80" s="9"/>
+      <c r="CK80" s="9"/>
+      <c r="CL80" s="9"/>
+      <c r="CM80" s="9"/>
+      <c r="CN80" s="9"/>
+      <c r="CO80" s="9"/>
+      <c r="CP80" s="9"/>
+      <c r="CQ80" s="9"/>
+      <c r="CR80" s="9"/>
+      <c r="CS80" s="9"/>
+      <c r="CT80" s="9"/>
+      <c r="CU80" s="9"/>
+      <c r="CV80" s="9"/>
+      <c r="CW80" s="9"/>
+      <c r="CX80" s="9"/>
+      <c r="CY80" s="9"/>
+      <c r="CZ80" s="9"/>
+      <c r="DA80" s="9"/>
+      <c r="DB80" s="9"/>
+      <c r="DC80" s="9"/>
+      <c r="DD80" s="9"/>
+      <c r="DE80" s="9"/>
+      <c r="DF80" s="9"/>
+      <c r="DG80" s="9"/>
+      <c r="DH80" s="9"/>
+      <c r="DI80" s="9"/>
+      <c r="DJ80" s="9"/>
+      <c r="DK80" s="9"/>
+      <c r="DL80" s="9"/>
+      <c r="DM80" s="9"/>
+      <c r="DN80" s="9"/>
+      <c r="DO80" s="9"/>
+      <c r="DP80" s="9"/>
+      <c r="DQ80" s="9"/>
+      <c r="DR80" s="9"/>
+      <c r="DS80" s="9"/>
+      <c r="DT80" s="9"/>
+      <c r="DU80" s="9"/>
+      <c r="DV80" s="9"/>
+      <c r="DW80" s="9"/>
+      <c r="DX80" s="9"/>
+      <c r="DY80" s="9"/>
+      <c r="DZ80" s="9"/>
+      <c r="EA80" s="9"/>
+      <c r="EB80" s="9"/>
+      <c r="EC80" s="9"/>
+      <c r="ED80" s="9"/>
+      <c r="EE80" s="9"/>
+      <c r="EF80" s="9"/>
+      <c r="EG80" s="9"/>
+      <c r="EH80" s="9"/>
+      <c r="EI80" s="9"/>
+      <c r="EJ80" s="9"/>
+      <c r="EK80" s="9"/>
+      <c r="EL80" s="9"/>
+      <c r="EM80" s="9"/>
+      <c r="EN80" s="9"/>
+      <c r="EO80" s="9"/>
+      <c r="EP80" s="9"/>
+      <c r="EQ80" s="9"/>
+      <c r="ER80" s="9"/>
+      <c r="ES80" s="9"/>
+      <c r="ET80" s="9"/>
+      <c r="EU80" s="9"/>
+      <c r="EV80" s="9"/>
+      <c r="EW80" s="9"/>
+      <c r="EX80" s="9"/>
+      <c r="EY80" s="9"/>
+      <c r="EZ80" s="9"/>
+      <c r="FA80" s="9"/>
+      <c r="FB80" s="9"/>
+      <c r="FC80" s="9"/>
+      <c r="FD80" s="9"/>
+      <c r="FE80" s="9"/>
+      <c r="FF80" s="9"/>
+      <c r="FG80" s="9"/>
+      <c r="FH80" s="9"/>
+      <c r="FI80" s="9"/>
+      <c r="FJ80" s="9"/>
+      <c r="FK80" s="9"/>
+      <c r="FL80" s="9"/>
+      <c r="FM80" s="9"/>
+      <c r="FN80" s="9"/>
+      <c r="FO80" s="9"/>
+      <c r="FP80" s="9"/>
+      <c r="FQ80" s="9"/>
+      <c r="FR80" s="9"/>
+    </row>
+    <row r="81" spans="2:21" s="19" customFormat="1">
+      <c r="B81" s="67"/>
+      <c r="C81" s="44"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="R81" s="77"/>
+      <c r="S81" s="77"/>
+      <c r="T81" s="77"/>
+      <c r="U81" s="78"/>
+    </row>
+    <row r="82" spans="2:21">
+      <c r="B82" s="42"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="9"/>
+    </row>
+    <row r="83" spans="2:21">
+      <c r="B83" s="42"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -3553,7 +5125,7 @@
       <c r="B10">
         <v>3.1</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="53">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -3561,7 +5133,7 @@
       <c r="B11">
         <v>3.2</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="53">
         <v>1.2</v>
       </c>
     </row>
@@ -3773,7 +5345,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="20" spans="3:9">
-      <c r="F20" s="30"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="22" spans="3:9">
       <c r="I22" t="s">
